--- a/all_products_details.xlsx
+++ b/all_products_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>car_name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,45 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>location</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>model_year</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>model_year</t>
+          <t>mileage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mileage</t>
+          <t>seller_name</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>seller_name</t>
+          <t>is_featured</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>is_featured</t>
+          <t>cover_image_url</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>cover_image_url</t>
+          <t>image_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>image_1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>image_2</t>
         </is>
@@ -493,3182 +488,2596 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Suzuki Cultus VXR 2007</t>
+          <t>Nissan Dayz 2020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PKR 7.8 lacs</t>
+          <t>PKR 36.7 lacs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>25,000 km</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>78,000 km</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Imran Manzoor</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9289/nissan-dayz-2020-92895733.webp</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9277/suzuki-cultus-vxr-2007-92775898.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9289/nissan-dayz-2020-92895743.webp</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9277/suzuki-cultus-vxr-2007-92775903.webp</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9277/suzuki-cultus-vxr-2007-92775896.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9289/nissan-dayz-2020-92895735.webp</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Honda Civic Oriel 1.8 i-VTEC CVT 2019</t>
+          <t>Daihatsu Move X 2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PKR 49.5 lacs</t>
+          <t>PKR 38.7 lacs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>6,000 km</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>120,000 km</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Kumail Arshad</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9287/daihatsu-move-x-5-2020-92871990.webp</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9275/honda-civic-oriel-1-8-i-vtec-cvt-2019-92756895.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9287/daihatsu-move-x-5-2020-92872006.webp</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9275/honda-civic-oriel-1-8-i-vtec-cvt-2019-92756868.webp</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9275/honda-civic-oriel-1-8-i-vtec-cvt-2019-92756921.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9287/daihatsu-move-x-5-2020-92871991.webp</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toyota Corolla GLi 1.3 VVTi 2012</t>
+          <t>Daihatsu Copen 10th Anniversary Edition 2002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PKR 27.5 lacs</t>
+          <t>PKR 17.5 lacs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>100,000 km</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>130,000 km</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Hamza Asif Khan</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+          <t>Mudassarsiddique</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/8949/daihatsu-copen-10th-anniversary-edition-2002-89491146.webp</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9275/toyota-corolla-gli-vvti-2012-92753389.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/8949/daihatsu-copen-10th-anniversary-edition-2002-89491149.webp</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9275/toyota-corolla-gli-vvti-2012-92753391.webp</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9275/toyota-corolla-gli-vvti-2012-92753392.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/8949/daihatsu-copen-10th-anniversary-edition-2002-89491143.webp</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Honda City 1.3 i-VTEC Prosmatec 2017</t>
+          <t>Honda City 1.3 i-VTEC Prosmatec 2015</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PKR 34.25 lacs</t>
+          <t>PKR 27.25 lacs Financing starts at PKR 76,317/Month</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>124,450 km</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75,000 km</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Khawar</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+          <t>Sy Ed Ally</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/9288/honda-city-i-vtec-prosmatec-2015-92886609.webp</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9274/honda-city-i-vtec-prosmatec-2017-92742559.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9288/honda-city-i-vtec-prosmatec-2015-92886616.webp</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9274/honda-city-i-vtec-prosmatec-2017-92742565.webp</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9274/honda-city-i-vtec-prosmatec-2017-92742555.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9288/honda-city-i-vtec-prosmatec-2015-92886595.webp</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Toyota Corolla GLi Limited Edition 1.3 VVTi 2014</t>
+          <t>Subaru Pleo A 2007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PKR 31 lacs</t>
+          <t>PKR 12.5 lacs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>87,000 km</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>100,000 km</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Hafiz Nauman</t>
-        </is>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+          <t>Rana</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9284/subaru-pleo-a-2-2007-92843750.webp</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9272/toyota-corolla-gli-vvti-limited-edition-2014-92721763.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9284/subaru-pleo-a-2-2007-92843738.webp</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9272/toyota-corolla-gli-vvti-limited-edition-2014-92721764.webp</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9272/toyota-corolla-gli-vvti-limited-edition-2014-92721766.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9284/subaru-pleo-a-2-2007-92843746.webp</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Suzuki Mehran VX Euro II 2018</t>
+          <t>Suzuki Mehran VX 2007</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PKR 11.85 lacs</t>
+          <t>PKR 7.4 lacs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>36,000 km</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>45,000 km</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Abid Mirza</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+          <t>Sheikh Imran</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9283/suzuki-mehran-vx-2-2007-92836606.webp</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9272/suzuki-mehran-vx-euro-ii-2018-92721842.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9283/suzuki-mehran-vx-2-2007-92836671.webp</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9272/suzuki-mehran-vx-euro-ii-2018-92721831.webp</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9272/suzuki-mehran-vx-euro-ii-2018-92721833.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9283/suzuki-mehran-vx-2-2007-92836673.webp</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Toyota Vitz F Safety Edition III 2018</t>
+          <t>Suzuki Wagon R VXL 2017</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PKR 42 lacs</t>
+          <t>PKR 20 lacs Financing starts at PKR 40,781/Month</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>157,151 km</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>63,000 km</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Aaa</t>
-        </is>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+          <t>Haroon Shahzad</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9281/suzuki-wagon-r-vxl-2017-92815493.webp</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/8978/toyota-vitz-jewela-smart-stop-package-2018-89780264.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9281/suzuki-wagon-r-vxl-2017-92815555.webp</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/8978/toyota-vitz-jewela-smart-stop-package-2018-89780274.webp</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/8978/toyota-vitz-jewela-smart-stop-package-2018-89780272.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9281/suzuki-wagon-r-vxl-2017-92815568.webp</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Suzuki Alto VXR 2021</t>
+          <t>Suzuki Cultus VXR 2007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PKR 23.85 lacs</t>
+          <t>PKR 7.7 lacs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>72,000 km</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>60,000 km</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Tracker Web</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+          <t>Imran Manzoor</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9277/suzuki-cultus-vxr-2007-92775898.webp</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9268/suzuki-alto-vxr-2-2021-92683414.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9277/suzuki-cultus-vxr-2007-92775903.webp</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9268/suzuki-alto-vxr-2-2021-92683420.webp</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9268/suzuki-alto-vxr-2-2021-92683416.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9277/suzuki-cultus-vxr-2007-92775896.webp</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Suzuki Bolan VX 2008</t>
+          <t>Honda Civic Oriel 1.8 i-VTEC CVT 2019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PKR 5.9 lacs</t>
+          <t>PKR 49.5 lacs Financing starts at PKR 117,256/Month</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>120,000 km</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65,000 km</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Afrasiab</t>
-        </is>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+          <t>Kumail Arshad</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9275/honda-civic-oriel-1-8-i-vtec-cvt-2019-92756895.webp</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9264/suzuki-bolan-vx-3-2008-92640793.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9275/honda-civic-oriel-1-8-i-vtec-cvt-2019-92756868.webp</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9264/suzuki-bolan-vx-3-2008-92640797.webp</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9264/suzuki-bolan-vx-3-2008-92640800.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9275/honda-civic-oriel-1-8-i-vtec-cvt-2019-92756921.webp</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Suzuki Jimny 2009</t>
+          <t>Toyota Corolla GLi 1.3 VVTi 2012</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PKR 25 lacs</t>
+          <t>PKR 27.5 lacs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>130,000 km</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>160,000 km</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Humaira Imran</t>
-        </is>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+          <t>Hamza Asif Khan</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9275/toyota-corolla-gli-vvti-2012-92753389.webp</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/8980/suzuki-jimny-2009-89807620.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9275/toyota-corolla-gli-vvti-2012-92753391.webp</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/8980/suzuki-jimny-2009-89807627.webp</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/8980/suzuki-jimny-2009-89807622.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9275/toyota-corolla-gli-vvti-2012-92753392.webp</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Suzuki Bolan Cargo Van Euro ll 2016</t>
+          <t>Honda City 1.3 i-VTEC Prosmatec 2017</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PKR 14.5 lacs</t>
+          <t>PKR 34.25 lacs Financing starts at PKR 94,653/Month</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>75,000 km</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>56,000 km</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Malik Mohsin</t>
-        </is>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+          <t>Khawar</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9274/honda-city-i-vtec-prosmatec-2017-92742559.webp</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9263/suzuki-bolan-st-cargo-2016-92631438.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9274/honda-city-i-vtec-prosmatec-2017-92742565.webp</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9263/suzuki-bolan-st-cargo-2016-92631434.webp</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9263/suzuki-bolan-st-cargo-2016-92631433.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9274/honda-city-i-vtec-prosmatec-2017-92742555.webp</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Honda City 1.2L CVT 2023</t>
+          <t>Toyota Corolla GLi Limited Edition 1.3 VVTi 2014</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PKR 49 lacs</t>
+          <t>PKR 31 lacs Financing starts at PKR 86,992/Month</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>100,000 km</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,670 km</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Khurram</t>
-        </is>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+          <t>Hafiz Nauman</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/9272/toyota-corolla-gli-vvti-limited-edition-2014-92721763.webp</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9261/honda-city-1-2l-cvt-2023-92614146.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9272/toyota-corolla-gli-vvti-limited-edition-2014-92721764.webp</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9261/honda-city-1-2l-cvt-2023-92614139.webp</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9261/honda-city-1-2l-cvt-2023-92614141.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9272/toyota-corolla-gli-vvti-limited-edition-2014-92721766.webp</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Suzuki Wagon R VXL 2019</t>
+          <t>Suzuki Mehran VX Euro II 2018</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PKR 23.75 lacs</t>
+          <t>PKR 11.85 lacs Financing starts at PKR 24,347/Month</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>45,000 km</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55,000 km</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Usman</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+          <t>Abid Mirza</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9272/suzuki-mehran-vx-euro-ii-2018-92721842.webp</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9181/suzuki-wagon-r-vxl-2019-91819750.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9272/suzuki-mehran-vx-euro-ii-2018-92721831.webp</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9181/suzuki-wagon-r-vxl-2019-91819731.webp</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9181/suzuki-wagon-r-vxl-2019-91819748.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9272/suzuki-mehran-vx-euro-ii-2018-92721833.webp</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Honda Civic VTi Oriel 1.8 i-VTEC 2013</t>
+          <t>Toyota Vitz Jewela Smart Stop Package 1.0 2018</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PKR 31 lacs</t>
+          <t>PKR 42.5 lacs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>63,000 km</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>128,000 km</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Rafay Bin Adnan</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+          <t>Aaa</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/8978/toyota-vitz-jewela-smart-stop-package-2018-89780274.webp</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9257/honda-civic-vti-1-8-i-vtec-oriel-2013-92575655.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/8978/toyota-vitz-jewela-smart-stop-package-2018-89780272.webp</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9257/honda-civic-vti-1-8-i-vtec-oriel-2013-92575642.webp</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9257/honda-civic-vti-1-8-i-vtec-oriel-2013-92575634.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/8978/toyota-vitz-jewela-smart-stop-package-2018-89780265.webp</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hyundai Santro Club 2005</t>
+          <t>Suzuki Alto VXR 2021</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PKR 7.9 lacs</t>
+          <t>PKR 23.85 lacs Financing starts at PKR 48,631/Month</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>60,000 km</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>123,000 km</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Adnan Ahmad</t>
-        </is>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+          <t>Tracker Web</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9268/suzuki-alto-vxr-2-2021-92683414.webp</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9256/hyundai-santro-club-2-2005-92567502.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9268/suzuki-alto-vxr-2-2021-92683420.webp</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9256/hyundai-santro-club-2-2005-92567503.webp</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9256/hyundai-santro-club-2-2005-92567504.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9268/suzuki-alto-vxr-2-2021-92683416.webp</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Honda City 1.2L CVT 2023</t>
+          <t>Suzuki Jimny 2009</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PKR 49 lacs</t>
+          <t>PKR 25 lacs</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>160,000 km</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1,650 km</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Khurram Shahzad</t>
-        </is>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+          <t>Humaira Imran</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/8980/suzuki-jimny-2009-89807620.webp</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9253/honda-city-1-2l-cvt-2023-92533327.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/8980/suzuki-jimny-2009-89807627.webp</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9253/honda-city-1-2l-cvt-2023-92533326.webp</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9253/honda-city-1-2l-cvt-2023-92533325.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/8980/suzuki-jimny-2009-89807622.webp</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Subaru Pleo A 2007</t>
+          <t>Suzuki Bolan Cargo Van Euro ll 2016</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PKR 12.5 lacs</t>
+          <t>PKR 14.5 lacs Financing starts at PKR 29,792/Month</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>56,000 km</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>87,000 km</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Rana</t>
-        </is>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+          <t>Malik Mohsin</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9263/suzuki-bolan-st-cargo-2016-92631438.webp</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9252/subaru-pleo-a-2-2007-92526413.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9263/suzuki-bolan-st-cargo-2016-92631434.webp</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9252/subaru-pleo-a-2-2007-92526422.webp</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9252/subaru-pleo-a-2-2007-92526421.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9263/suzuki-bolan-st-cargo-2016-92631433.webp</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Honda BR-V i-VTEC S 2020</t>
+          <t>Hyundai Santro Club 2005</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PKR 57 lacs</t>
+          <t>PKR 7.9 lacs</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>123,000 km</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>70,000 km</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Ali Virk</t>
-        </is>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
+          <t>Adnan Ahmad</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9256/hyundai-santro-club-2-2005-92567502.webp</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9251/honda-br-v-i-vtec-s-2020-92516389.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9256/hyundai-santro-club-2-2005-92567503.webp</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9251/honda-br-v-i-vtec-s-2020-92516388.webp</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9251/honda-br-v-i-vtec-s-2020-92516397.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9256/hyundai-santro-club-2-2005-92567504.webp</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Land Rover Defender 110 2007</t>
+          <t>Subaru Pleo A 2007</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PKR 45 lacs</t>
+          <t>PKR 12.5 lacs</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>87,000 km</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>64,000 km</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Asif Ameer</t>
-        </is>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+          <t>Rana</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9252/subaru-pleo-a-2-2007-92526413.webp</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9250/land-rover-defender-110-2-2007-92500969.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9252/subaru-pleo-a-2-2007-92526422.webp</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9250/land-rover-defender-110-2-2007-92500868.webp</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9250/land-rover-defender-110-2-2007-92500970.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9252/subaru-pleo-a-2-2007-92526421.webp</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Toyota Hilux Invincible 2015</t>
+          <t>Honda BR-V i-VTEC S 2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PKR 76 lacs</t>
+          <t>PKR 57 lacs Financing starts at PKR 112,518/Month</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>70,000 km</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>89,000 km</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Ali</t>
-        </is>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+          <t>Ali Virk</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9251/honda-br-v-i-vtec-s-2020-92516389.webp</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9249/toyota-hilux-invincible-2015-92491039.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9251/honda-br-v-i-vtec-s-2020-92516388.webp</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9249/toyota-hilux-invincible-2015-92491044.webp</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9249/toyota-hilux-invincible-2015-92491037.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9251/honda-br-v-i-vtec-s-2020-92516397.webp</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Honda Freed 2012</t>
+          <t>Land Rover Defender 110 2007</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PKR 35.5 lacs</t>
+          <t>PKR 45 lacs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>64,000 km</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50,000 km</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Kumail Arshad</t>
-        </is>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+          <t>Asif Ameer</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/9250/land-rover-defender-110-2-2007-92500969.webp</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9247/honda-freed-2012-92477465.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9250/land-rover-defender-110-2-2007-92500868.webp</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://wsa1.pakwheels.com/assets/pw-inspection-galary-pitch-14aa6aa9f784fc116bb9c547ba498541.png</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>https://cache3.pakwheels.com/ad_pictures/9250/land-rover-defender-110-2-2007-92500970.webp</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Daihatsu Tanto X Turbo 2020</t>
+          <t>Toyota Hilux Invincible 2015</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PKR 32.75 lacs</t>
+          <t>PKR 76 lacs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>89,000 km</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>33,000 km</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Azhar Ahmad</t>
-        </is>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9249/toyota-hilux-invincible-2015-92491039.webp</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9247/daihatsu-tanto-x-turbo-3-2020-92471839.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9249/toyota-hilux-invincible-2015-92491044.webp</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9247/daihatsu-tanto-x-turbo-3-2020-92471842.webp</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9247/daihatsu-tanto-x-turbo-3-2020-92471833.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9249/toyota-hilux-invincible-2015-92491037.webp</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Suzuki Wagon R VXL 2018</t>
+          <t>Honda Freed 2012</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PKR 22 lacs</t>
+          <t>PKR 35.5 lacs</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>50,000 km</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>100,000 km</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Zohaib Jutt</t>
-        </is>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+          <t>Kumail Arshad</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9247/honda-freed-2012-92477465.webp</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9243/suzuki-wagon-r-vxl-2018-92436652.webp</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9243/suzuki-wagon-r-vxl-2018-92436653.webp</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9243/suzuki-wagon-r-vxl-2018-92436649.webp</t>
-        </is>
-      </c>
+          <t>https://wsa1.pakwheels.com/assets/pw-inspection-galary-pitch-14aa6aa9f784fc116bb9c547ba498541.png</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Suzuki Alto G 2006</t>
+          <t>Daihatsu Tanto X Turbo 2020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PKR 15.75 lacs</t>
+          <t>PKR 32.75 lacs</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>33,000 km</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>200,000 km</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>ASD Supplies</t>
-        </is>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
+          <t>Azhar Ahmad</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9247/daihatsu-tanto-x-turbo-3-2020-92471839.webp</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9041/suzuki-alto-g-4-2006-90414166.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9247/daihatsu-tanto-x-turbo-3-2020-92471842.webp</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9041/suzuki-alto-g-4-2006-90414168.webp</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9041/suzuki-alto-g-4-2006-90414167.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9247/daihatsu-tanto-x-turbo-3-2020-92471833.webp</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Honda City 1.2L CVT 2023</t>
+          <t>Suzuki Wagon R VXL 2018</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PKR 49 lacs</t>
+          <t>PKR 22 lacs Financing starts at PKR 44,859/Month</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>100,000 km</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1,650 km</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Khurram</t>
-        </is>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
+          <t>Zohaib Jutt</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9243/suzuki-wagon-r-vxl-2018-92436652.webp</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9225/honda-city-1-2l-cvt-2023-92255943.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9243/suzuki-wagon-r-vxl-2018-92436653.webp</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://wsa1.pakwheels.com/assets/pw-inspection-galary-pitch-14aa6aa9f784fc116bb9c547ba498541.png</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>https://cache2.pakwheels.com/ad_pictures/9243/suzuki-wagon-r-vxl-2018-92436649.webp</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Honda City i-DSI 2007</t>
+          <t>Suzuki Alto G 2006</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PKR 16.5 lacs</t>
+          <t>PKR 15.75 lacs</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>200,000 km</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>200,000 km</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>M Bilal</t>
-        </is>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+          <t>ASD Supplies</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9041/suzuki-alto-g-4-2006-90414166.webp</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9224/honda-city-i-dsi-2007-92244404.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9041/suzuki-alto-g-4-2006-90414168.webp</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9224/honda-city-i-dsi-2007-92244400.webp</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9224/honda-city-i-dsi-2007-92244393.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9041/suzuki-alto-g-4-2006-90414167.webp</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Suzuki Swift DX 1.3 2011</t>
+          <t>Honda City i-DSI 2007</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PKR 16.85 lacs</t>
+          <t>PKR 16.5 lacs</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>200,000 km</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>72,000 km</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pak Wheeler</t>
-        </is>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
+          <t>M Bilal</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9224/honda-city-i-dsi-2007-92244404.webp</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9222/suzuki-swift-1-3-dx-2011-92229020.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9224/honda-city-i-dsi-2007-92244400.webp</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9222/suzuki-swift-1-3-dx-2011-92229022.webp</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9222/suzuki-swift-1-3-dx-2011-92229254.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9224/honda-city-i-dsi-2007-92244393.webp</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Toyota Belta X Business A Package 1.3 2005</t>
+          <t>Suzuki Swift DX 1.3 2011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PKR 22.25 lacs</t>
+          <t>PKR 16.85 lacs</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>72,000 km</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>92,000 km</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Khurshid Ahmad</t>
-        </is>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+          <t>Pak Wheeler</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9222/suzuki-swift-1-3-dx-2011-92229020.webp</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/8905/toyota-belta-x-business-a-package-1-3-2005-89053766.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9222/suzuki-swift-1-3-dx-2011-92229022.webp</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/8905/toyota-belta-x-business-a-package-1-3-2005-89053774.webp</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/8905/toyota-belta-x-business-a-package-1-3-2005-89053768.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9222/suzuki-swift-1-3-dx-2011-92229254.webp</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Toyota Corolla GLi Automatic 1.3 VVTi 2017</t>
+          <t>Toyota Belta X Business A Package 1.3 2005</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PKR 38.5 lacs</t>
+          <t>PKR 22.25 lacs</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>92,000 km</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>93,000 km</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
           <t>Khurshid Ahmad</t>
         </is>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/8905/toyota-belta-x-business-a-package-1-3-2005-89053766.webp</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/8823/toyota-corolla-gli-vvti-automatic-2017-88235574.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/8905/toyota-belta-x-business-a-package-1-3-2005-89053774.webp</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/8823/toyota-corolla-gli-vvti-automatic-2017-88235576.webp</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/8823/toyota-corolla-gli-vvti-automatic-2017-88235572.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/8905/toyota-belta-x-business-a-package-1-3-2005-89053768.webp</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BMW 5 Series 520i 2005</t>
+          <t>Toyota Corolla GLi Automatic 1.3 VVTi 2017</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PKR 40 lacs</t>
+          <t>PKR 38.5 lacs Financing starts at PKR 106,399/Month</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>93,000 km</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1,234 km</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Talha</t>
-        </is>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+          <t>Khurshid Ahmad</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/8823/toyota-corolla-gli-vvti-automatic-2017-88235574.webp</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9220/bmw-5-series-520i-2005-92201219.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/8823/toyota-corolla-gli-vvti-automatic-2017-88235576.webp</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9220/bmw-5-series-520i-2005-92201221.webp</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9220/bmw-5-series-520i-2005-92201215.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/8823/toyota-corolla-gli-vvti-automatic-2017-88235572.webp</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Honda Civic VTi 1.8 i-VTEC 2012</t>
+          <t>BMW 5 Series 520i 2005</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PKR 24 lacs</t>
+          <t>PKR 40 lacs</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1,234 km</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>120,000 km</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Ammad</t>
-        </is>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
+          <t>Talha</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9220/bmw-5-series-520i-2005-92201219.webp</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9254/honda-civic-vti-1-8-i-vtec-2012-92544720.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9220/bmw-5-series-520i-2005-92201221.webp</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9214/honda-civic-vti-1-8-i-vtec-2012-92149666.webp</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9214/honda-civic-vti-1-8-i-vtec-2012-92149667.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9220/bmw-5-series-520i-2005-92201215.webp</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honda City 1.3 i-VTEC Prosmatec 2016</t>
+          <t>Honda Civic VTi 1.8 i-VTEC 2012</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PKR 32.4 lacs</t>
+          <t>PKR 24 lacs</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>120,000 km</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>120,000 km</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Adv Faisal Ishfaq</t>
-        </is>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
+          <t>Ammad</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/9254/honda-civic-vti-1-8-i-vtec-2012-92544720.webp</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9211/honda-city-i-vtec-prosmatec-2016-92119603.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9214/honda-civic-vti-1-8-i-vtec-2012-92149666.webp</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9211/honda-city-i-vtec-prosmatec-2016-92119601.webp</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9211/honda-city-i-vtec-prosmatec-2016-92119618.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9214/honda-civic-vti-1-8-i-vtec-2012-92149667.webp</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Suzuki FX GA 1987</t>
+          <t>Honda City 1.3 i-VTEC Prosmatec 2016</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PKR 3.49 lacs</t>
+          <t>PKR 32.4 lacs Financing starts at PKR 91,379/Month</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>120,000 km</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>88,100 km</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Xyz</t>
-        </is>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+          <t>Adv Faisal Ishfaq</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9211/honda-city-i-vtec-prosmatec-2016-92119603.webp</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9211/suzuki-fx-ga-3-1987-92112041.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9211/honda-city-i-vtec-prosmatec-2016-92119601.webp</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9211/suzuki-fx-ga-3-1987-92112060.webp</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9211/suzuki-fx-ga-3-1987-92112088.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9211/honda-city-i-vtec-prosmatec-2016-92119618.webp</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Honda City 1.3 i-VTEC 2021</t>
+          <t>Suzuki FX GA 1987</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PKR 37 lacs</t>
+          <t>PKR 3.49 lacs</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>88,100 km</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>34,000 km</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Irfan</t>
-        </is>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+          <t>Xyz</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9211/suzuki-fx-ga-3-1987-92112041.webp</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9210/honda-city-i-vtec-2-2021-92103775.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9211/suzuki-fx-ga-3-1987-92112060.webp</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9210/honda-city-i-vtec-2-2021-92103776.webp</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9210/honda-city-i-vtec-2-2021-92103777.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9211/suzuki-fx-ga-3-1987-92112088.webp</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Toyota Prius 2011</t>
+          <t>Honda Civic VTi 1.8 i-VTEC 2012</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PKR 36.75 lacs</t>
+          <t>PKR 24 lacs</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>120,000 km</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>123,456 km</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Sy Ed Ally</t>
-        </is>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
+          <t>Surforosh Raza</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9254/honda-civic-vti-1-8-i-vtec-2012-92544761.webp</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9209/toyota-prius-2011-92097046.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9196/honda-civic-vti-1-8-i-vtec-2012-91966138.webp</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9209/toyota-prius-2011-92097050.webp</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9209/toyota-prius-2011-92097048.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9196/honda-civic-vti-1-8-i-vtec-2012-91966139.webp</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Honda Civic VTi 1.8 i-VTEC 2012</t>
+          <t>Toyota Prado TZ 3.0D 2005</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PKR 24 lacs</t>
+          <t>PKR 75 lacs</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>168,000 km</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>120,000 km</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Surforosh Raza</t>
-        </is>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
+          <t>Nasir Mehmood</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/9270/toyota-prado-tz-3-0d-2005-92703261.webp</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9254/honda-civic-vti-1-8-i-vtec-2012-92544761.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9270/toyota-prado-tz-3-0d-2005-92703262.webp</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9196/honda-civic-vti-1-8-i-vtec-2012-91966138.webp</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9196/honda-civic-vti-1-8-i-vtec-2012-91966139.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9270/toyota-prado-tz-3-0d-2005-92703263.webp</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Toyota Prado TZ 3.0D 2005</t>
+          <t>Suzuki Cultus VXR 2017</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PKR 75 lacs</t>
+          <t>PKR 22.75 lacs Financing starts at PKR 46,248/Month</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>109,000 km</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>168,000 km</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Nasir Mehmood</t>
-        </is>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
+          <t>Farooq</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9187/suzuki-cultus-vxr-2017-91872910.webp</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9270/toyota-prado-tz-3-0d-2005-92703261.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9187/suzuki-cultus-vxr-2017-91872916.webp</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9270/toyota-prado-tz-3-0d-2005-92703262.webp</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9270/toyota-prado-tz-3-0d-2005-92703263.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9187/suzuki-cultus-vxr-2017-91872904.webp</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Suzuki Cultus VXR 2017</t>
+          <t>Suzuki Swift DLX 1.3 Navigation  2017</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PKR 22.75 lacs</t>
+          <t>PKR 24 lacs Financing starts at PKR 66,326/Month</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>130,000 km</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>109,000 km</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Farooq</t>
-        </is>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
+          <t>Zaryab</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9184/suzuki-swift-dlx-1-3-navigation-2017-91849519.webp</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9187/suzuki-cultus-vxr-2017-91872910.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9184/suzuki-swift-dlx-1-3-navigation-2017-91849516.webp</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9187/suzuki-cultus-vxr-2017-91872916.webp</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9187/suzuki-cultus-vxr-2017-91872904.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9184/suzuki-swift-dlx-1-3-navigation-2017-91849518.webp</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Suzuki Swift DLX 1.3 Navigation  2017</t>
+          <t>Suzuki Spacia 2014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PKR 24 lacs</t>
+          <t>PKR 21.75 lacs</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>87,000 km</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>130,000 km</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Zaryab</t>
-        </is>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
+          <t>Hafeez</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9175/suzuki-spacia-2014-91750103.webp</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9184/suzuki-swift-dlx-1-3-navigation-2017-91849519.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9175/suzuki-spacia-2014-91750098.webp</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9184/suzuki-swift-dlx-1-3-navigation-2017-91849516.webp</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9184/suzuki-swift-dlx-1-3-navigation-2017-91849518.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9175/suzuki-spacia-2014-91750102.webp</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Suzuki Spacia 2014</t>
+          <t>Daihatsu Cuore CX Automatic 2007</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PKR 21.75 lacs</t>
+          <t>PKR 8.25 lacs</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>134,733 km</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>87,000 km</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Hafeez</t>
-        </is>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
+          <t>Mumtaz Ahmad</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9174/daihatsu-cuore-cx-a-t-2007-91748946.webp</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9175/suzuki-spacia-2014-91750103.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9174/daihatsu-cuore-cx-a-t-2007-91748949.webp</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9175/suzuki-spacia-2014-91750098.webp</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9175/suzuki-spacia-2014-91750102.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9174/daihatsu-cuore-cx-a-t-2007-91748947.webp</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Daihatsu Cuore CX Automatic 2007</t>
+          <t>Honda Civic VTi Oriel Prosmatec 1.8 i-VTEC 2009</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PKR 8.25 lacs</t>
+          <t>PKR 19.5 lacs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>124,000 km</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>134,733 km</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Mumtaz Ahmad</t>
-        </is>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
+          <t>Mian Ali</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9174/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2009-91741571.webp</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9174/daihatsu-cuore-cx-a-t-2007-91748946.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9174/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2009-91741573.webp</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9174/daihatsu-cuore-cx-a-t-2007-91748949.webp</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9174/daihatsu-cuore-cx-a-t-2007-91748947.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9174/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2009-91741570.webp</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Honda Civic VTi Oriel Prosmatec 1.8 i-VTEC 2009</t>
+          <t>Suzuki Margalla GL 1994</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PKR 19.5 lacs</t>
+          <t>PKR 4.95 lacs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>123,456 km</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>124,000 km</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Mian Ali</t>
-        </is>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
+          <t>Khurram Ejaz</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/9170/suzuki-margalla-gl-5-1994-91708814.webp</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9174/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2009-91741571.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9170/suzuki-margalla-gl-5-1994-91708818.webp</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9174/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2009-91741573.webp</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9174/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2009-91741570.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9170/suzuki-margalla-gl-5-1994-91708816.webp</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Suzuki Margalla GL 1994</t>
+          <t>Suzuki Margalla 1994</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PKR 4.95 lacs</t>
+          <t>PKR 5 lacs</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>11,111 km</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>123,456 km</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
           <t>Khurram Ejaz</t>
         </is>
       </c>
-      <c r="H44" t="b">
-        <v>0</v>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/8831/suzuki-margalla-1994-88318028.webp</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9170/suzuki-margalla-gl-5-1994-91708814.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/8831/suzuki-margalla-1994-88318035.webp</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9170/suzuki-margalla-gl-5-1994-91708818.webp</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9170/suzuki-margalla-gl-5-1994-91708816.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/8831/suzuki-margalla-1994-88318033.webp</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Suzuki Margalla 1994</t>
+          <t>Suzuki Cultus VXRi 2009</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PKR 5 lacs</t>
+          <t>PKR 9.8 lacs</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>100,000 km</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>11,111 km</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Khurram Ejaz</t>
-        </is>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
+          <t>Awais</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9166/suzuki-cultus-vxri-2-2009-91668630.webp</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/8831/suzuki-margalla-1994-88318028.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9166/suzuki-cultus-vxri-2-2009-91668625.webp</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/8831/suzuki-margalla-1994-88318035.webp</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/8831/suzuki-margalla-1994-88318033.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9166/suzuki-cultus-vxri-2-2009-91668640.webp</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Suzuki Cultus VXRi 2009</t>
+          <t>Suzuki Cultus VXRi 2011</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PKR 9.8 lacs</t>
+          <t>PKR 12.6 lacs</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>87,824 km</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>100,000 km</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Awais</t>
-        </is>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
+          <t>Ch Ikram</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9164/suzuki-cultus-vxri-2-2011-91649776.webp</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9166/suzuki-cultus-vxri-2-2009-91668630.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9164/suzuki-cultus-vxri-2-2011-91649775.webp</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9166/suzuki-cultus-vxri-2-2009-91668625.webp</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9166/suzuki-cultus-vxri-2-2009-91668640.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9164/suzuki-cultus-vxri-2-2011-91649777.webp</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Suzuki Cultus VXRi 2011</t>
+          <t>Honda Civic VTi Oriel Prosmatec 1.8 i-VTEC 2013</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PKR 12.6 lacs</t>
+          <t>PKR 33.75 lacs</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>138,000 km</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>87,824 km</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Ch Ikram</t>
-        </is>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
+          <t>Anas</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://cache2.pakwheels.com/ad_pictures/9106/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2013-91069206.webp</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9164/suzuki-cultus-vxri-2-2011-91649776.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9106/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2013-91069204.webp</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9164/suzuki-cultus-vxri-2-2011-91649775.webp</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9164/suzuki-cultus-vxri-2-2011-91649777.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9106/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2013-91069205.webp</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Suzuki Cultus VXRi 2009</t>
+          <t>Daihatsu Move L SA 3 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PKR 8.8 lacs</t>
+          <t>PKR 38 lacs</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>6,700 km</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>150,000 km</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Samiullah</t>
-        </is>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
+          <t>Hammad Ahmed</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9105/daihatsu-move-l-sa-3-2022-91052759.webp</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9158/suzuki-cultus-vxri-2-2009-91581757.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9105/daihatsu-move-l-sa-3-2022-91052749.webp</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9158/suzuki-cultus-vxri-2-2009-91581758.webp</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9158/suzuki-cultus-vxri-2-2009-91581761.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9105/daihatsu-move-l-sa-3-2022-91052761.webp</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Honda City i-DSI 2008</t>
+          <t>Toyota Corolla Altis Grande CVT-i 1.8 2015</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PKR 19.95 lacs</t>
+          <t>PKR 39.25 lacs Financing starts at PKR 110,143/Month</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>145,000 km</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>124,000 km</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Faizan Rasool</t>
-        </is>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
+          <t>Husnain Azhar</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9104/toyota-corolla-altis-1-8-grande-automatic-2015-91049141.webp</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9158/honda-city-i-dsi-2008-91580496.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9104/toyota-corolla-altis-1-8-grande-automatic-2015-91045614.webp</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9158/honda-city-i-dsi-2008-91580517.webp</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9158/honda-city-i-dsi-2008-91580522.webp</t>
+          <t>https://cache4.pakwheels.com/ad_pictures/9104/toyota-corolla-altis-1-8-grande-automatic-2015-91045620.webp</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Honda Civic VTi Prosmatec 1.8 i-VTEC 2008</t>
+          <t>Toyota Belta X Business A Package 1.3 2005</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PKR 20.1 lacs</t>
+          <t>PKR 22.25 lacs</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>92,000 km</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>186,000 km</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Shehroz Shah</t>
-        </is>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
+          <t>Khurshid Ahmad</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://cache3.pakwheels.com/ad_pictures/9102/toyota-belta-x-business-a-package-1-3-2005-91021148.webp</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9147/honda-civic-vti-1-8-i-vtec-prosmatec-2008-91474678.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9102/toyota-belta-x-business-a-package-1-3-2005-91021140.webp</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9147/honda-civic-vti-1-8-i-vtec-prosmatec-2008-91474674.webp</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9147/honda-civic-vti-1-8-i-vtec-prosmatec-2008-91474662.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9102/toyota-belta-x-business-a-package-1-3-2005-91021132.webp</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Suzuki Mehran VXR Euro II 2019</t>
+          <t>Toyota Corolla GLi Automatic 1.3 VVTi 2017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PKR 14 lacs</t>
+          <t>PKR 38.5 lacs Financing starts at PKR 106,612/Month</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>92,000 km</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>65,000 km</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Jawad Ul Hassan</t>
-        </is>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
+          <t>Khurshid Ahmad</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/8451/toyota-corolla-gli-vvti-automatic-2017-84515392.webp</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9147/suzuki-mehran-vxr-euro-ii-2019-91471707.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/8451/toyota-corolla-gli-vvti-automatic-2017-84515395.webp</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9147/suzuki-mehran-vxr-euro-ii-2019-91471708.webp</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9147/suzuki-mehran-vxr-euro-ii-2019-91471709.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/8451/toyota-corolla-gli-vvti-automatic-2017-84515402.webp</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Honda Civic VTi Oriel Prosmatec 1.8 i-VTEC 2013</t>
+          <t>Suzuki Alto VXR 2006</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PKR 33.75 lacs</t>
+          <t>PKR 6.1 lacs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>190,320 km</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>138,000 km</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Anas</t>
-        </is>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
+          <t>Ali Ahmad</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://cache4.pakwheels.com/ad_pictures/9100/suzuki-alto-vxr-2-2006-91003632.webp</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9106/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2013-91069206.webp</t>
+          <t>https://cache1.pakwheels.com/ad_pictures/9100/suzuki-alto-vxr-2-2006-91003634.webp</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9106/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2013-91069204.webp</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9106/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2013-91069205.webp</t>
+          <t>https://cache3.pakwheels.com/ad_pictures/9100/suzuki-alto-vxr-2-2006-91003635.webp</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Daihatsu Move L SA 3 2022</t>
+          <t>Honda Civic VTi Oriel Prosmatec 1.8 i-VTEC 2008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PKR 38 lacs</t>
+          <t>PKR 18.7 lacs</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>COLLEGE ROAD, Lahore Punjab</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>190,000 km</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>6,700 km</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Hammad Ahmed</t>
-        </is>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
+          <t>Awais</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://cache1.pakwheels.com/ad_pictures/9097/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2008-90977350.webp</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9105/daihatsu-move-l-sa-3-2022-91052759.webp</t>
+          <t>https://cache2.pakwheels.com/ad_pictures/9097/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2008-90977346.webp</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9105/daihatsu-move-l-sa-3-2022-91052749.webp</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9105/daihatsu-move-l-sa-3-2022-91052761.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Toyota Corolla Altis Grande CVT-i 1.8 2015</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PKR 39.25 lacs</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Lahore</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>145,000 km</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Husnain Azhar</t>
-        </is>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9104/toyota-corolla-altis-1-8-grande-automatic-2015-91049141.webp</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9104/toyota-corolla-altis-1-8-grande-automatic-2015-91045614.webp</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9104/toyota-corolla-altis-1-8-grande-automatic-2015-91045620.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Toyota Belta X Business A Package 1.3 2005</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PKR 22.25 lacs</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Lahore</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>92,000 km</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Khurshid Ahmad</t>
-        </is>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9102/toyota-belta-x-business-a-package-1-3-2005-91021148.webp</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9102/toyota-belta-x-business-a-package-1-3-2005-91021140.webp</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9102/toyota-belta-x-business-a-package-1-3-2005-91021132.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Toyota Corolla GLi Automatic 1.3 VVTi 2017</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PKR 38.5 lacs</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Lahore</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>92,000 km</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Khurshid Ahmad</t>
-        </is>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/8451/toyota-corolla-gli-vvti-automatic-2017-84515392.webp</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/8451/toyota-corolla-gli-vvti-automatic-2017-84515395.webp</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/8451/toyota-corolla-gli-vvti-automatic-2017-84515402.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Suzuki Alto VXR 2006</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PKR 6.1 lacs</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Lahore</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>190,320 km</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Ali Ahmad</t>
-        </is>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://cache4.pakwheels.com/ad_pictures/9100/suzuki-alto-vxr-2-2006-91003632.webp</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9100/suzuki-alto-vxr-2-2006-91003634.webp</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9100/suzuki-alto-vxr-2-2006-91003635.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Honda Civic VTi Oriel Prosmatec 1.8 i-VTEC 2008</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PKR 18.7 lacs</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Lahore</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>190,000 km</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Awais</t>
-        </is>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://cache1.pakwheels.com/ad_pictures/9097/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2008-90977350.webp</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9097/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2008-90977346.webp</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
           <t>https://cache3.pakwheels.com/ad_pictures/9097/honda-civic-vti-1-8-i-vtec-oriel-prosmatec-2008-90977351.webp</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Honda Civic VTi 1.8 i-VTEC 2012</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PKR 24 lacs</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Lahore</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>COLLEGE ROAD, Lahore Punjab</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>120,000 km</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Ama</t>
-        </is>
-      </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://cache3.pakwheels.com/ad_pictures/9086/honda-civic-vti-1-8-i-vtec-2012-90867112.webp</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9082/honda-civic-vti-1-8-i-vtec-2012-90820167.webp</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>https://cache2.pakwheels.com/ad_pictures/9084/honda-civic-vti-1-8-i-vtec-2012-90840951.webp</t>
         </is>
       </c>
     </row>
